--- a/DOM_Banner/output/dept_banner/Talal Moukabary_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Talal Moukabary_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,362 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Jordan J. Lancaster, Adrian Grijalva, Jodie M. Fink, Jacob Ref, Sherry Daugherty, Susan P. Whitman, Keith A.A. Fox, Grace Gorman, L. D. Lancaster, Ryan Avery, T Acharya, A. T. G. McArthur, Joshua Strom, Mary K. Pierce, Talal Moukabary, Mark Borgstrom, D. Woodrow Benson, Massimo Mangiola, Amitabh C. Pandey, Michael R. Zile, Amy D. Bradshaw, Jen Watson Koevary, Steven Goldman</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388997798</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Biologically derived epicardial patch induces macrophage mediated pathophysiologic repair in chronically infarcted swine hearts</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5047446502", "https://openalex.org/A5063069480", "https://openalex.org/A5076916441", "https://openalex.org/A5062928645", "https://openalex.org/A5089858735", "https://openalex.org/A5008148729", "https://openalex.org/A5039466154", "https://openalex.org/A5042233781", "https://openalex.org/A5057414973", "https://openalex.org/A5091198661", "https://openalex.org/A5041525943", "https://openalex.org/A5054633631", "https://openalex.org/A5061640057", "https://openalex.org/A5033657510", 
-"https://openalex.org/A5024457504", "https://openalex.org/A5086586516", "https://openalex.org/A5088689176", "https://openalex.org/A5037046702", "https://openalex.org/A5005833059", "https://openalex.org/A5047833899", "https://openalex.org/A5038364145", "https://openalex.org/A5072411872", "https://openalex.org/A5041233721"), au_display_name = c("Jordan J. Lancaster", "Adrian Grijalva", "Jodie M. Fink", "Jacob Ref", "Sherry Daugherty", "Susan P. Whitman", "Keith A.A. Fox", "Grace Gorman", "L. D. Lancaster", 
-"Ryan Avery", "T Acharya", "A. T. G. McArthur", "Joshua Strom", "Mary K. Pierce", "Talal Moukabary", "Mark Borgstrom", "D. Woodrow Benson", "Massimo Mangiola", "Amitabh C. Pandey", "Michael R. Zile", "Amy D. Bradshaw", "Jen Watson Koevary", "Steven Goldman"), au_orcid = c(NA, NA, NA, "https://orcid.org/0000-0002-7381-2099", NA, NA, "https://orcid.org/0000-0002-0140-2752", NA, NA, "https://orcid.org/0000-0002-7913-0574", NA, NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-5406-4005", "https://orcid.org/0000-0002-1541-7023", 
-"https://orcid.org/0000-0001-7076-221X", "https://orcid.org/0000-0002-9202-3044", NA, "https://orcid.org/0000-0001-7943-1871"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", 
-"Division of Blood &amp; Marrow Transplant &amp; Cellular Therapy, Department of Pediatrics, Masonic Cancer Center, University of Minnesota, Minneapolis, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Division of Cardiothoracic Surgery, Department of Surgery, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", 
-"Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", 
-"Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Research &amp; Discovery Tech, Research Computing Specialist, Principal, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Department of Pathology, NYU Grossman School of Medicine, New York City, USA", "Section of Cardiology, Tulane University Heart and Vascular Institute, John W. Deming Department of Medicine, Section of Cardiology, Department of Medicine, Southeast Louisiana Veterans Healthcare System, Tulane University School of Medicine, New Orleans, USA", 
-"Ralph H. Johnson VA Medical Center, Division of Cardiology, Medical University of South Carolina, Thurmond/Gazes Building, Charleston, USA", "Ralph H. Johnson VA Medical Center, Division of Cardiology, Medical University of South Carolina, Thurmond/Gazes Building, Charleston, USA", "Biomedical Engineering, College of Engineering, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA", "Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA"
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I130238516", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I57206974", "https://openalex.org/I4210134675", "https://openalex.org/I4210132004", "https://openalex.org/I4210132004", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Minnesota", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", 
-"University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "New York University", "Southeast Louisiana Veterans Health Care System", "Ralph H. Johnson VA Medical Center", "Ralph H. Johnson VA Medical Center", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/017zqws13", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/0190ak572", "https://ror.org/03jg6a761", "https://ror.org/030ma0n95", 
-"https://ror.org/030ma0n95", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", 
-"healthcare", "healthcare", "healthcare", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I130238516, https://openalex.org/I2800403580", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I57206974", "https://openalex.org/I4210134675, https://openalex.org/I4210138636", "https://openalex.org/I4210131075, https://openalex.org/I4210132004", "https://openalex.org/I4210131075, https://openalex.org/I4210132004", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>There are nearly 65 million people with chronic heart failure (CHF) globally, with no treatment directed at the pathologic cause of the disease, the loss of functioning cardiomyocytes. We have an allogeneic cardiac patch comprised of cardiomyocytes and human fibroblasts on a bioresorbable matrix. This patch increases blood flow to the damaged heart and improves left ventricular (LV) function in an immune competent rat model of ischemic CHF. After 6 months of treatment in an immune competent Yucatan mini swine ischemic CHF model, this patch restores LV contractility without constrictive physiology, partially reversing maladaptive LV and right ventricular remodeling, increases exercise tolerance, without inducing any cardiac arrhythmias or a change in myocardial oxygen consumption. Digital spatial profiling in mice with patch placement 3 weeks after a myocardial infarction shows that the patch induces a CD45pos immune cell response that results in an infiltration of dendritic cells and macrophages with high expression of macrophages polarization to the anti-inflammatory reparative M2 phenotype. Leveraging the host native immune system allows for the potential use of immunomodulatory therapies for treatment of chronic inflammatory diseases not limited to ischemic CHF.</t>
+          <t>2023-11-25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>Communications biology</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Communications biology</t>
+          <t>Nature Portfolio</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210225776</t>
+          <t>https://doi.org/10.1038/s42003-023-05564-w</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nature Portfolio</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2399-3642</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38007534</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1038/s42003-023-05564-w</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s42003-023-05564-w.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.nature.com/articles/s42003-023-05564-w.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320332140", funder_display_name = "Arizona Biomedical Research Commission")</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388997798</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388997798", doi = "https://doi.org/10.1038/s42003-023-05564-w", pmid = "https://pubmed.ncbi.nlm.nih.gov/38007534")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s42003-023-05564-w</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1970895128", "https://openalex.org/W1982031733", "https://openalex.org/W1988030686", "https://openalex.org/W1994049688", "https://openalex.org/W2010368308", "https://openalex.org/W2080097356", "https://openalex.org/W2127905517", "https://openalex.org/W2143719911", "https://openalex.org/W2414686217", "https://openalex.org/W2548800408", "https://openalex.org/W2580555388", "https://openalex.org/W2610144546", "https://openalex.org/W2610602137", "https://openalex.org/W2620991452", 
-"https://openalex.org/W2623156160", "https://openalex.org/W2756245964", "https://openalex.org/W2810485115", "https://openalex.org/W2943332415", "https://openalex.org/W2944430658", "https://openalex.org/W2963977057", "https://openalex.org/W2986357383", "https://openalex.org/W2990914781", "https://openalex.org/W3017095443", "https://openalex.org/W3024765177", "https://openalex.org/W3087342465", "https://openalex.org/W3153441824", "https://openalex.org/W3163827142", "https://openalex.org/W3183829531", 
-"https://openalex.org/W3184035643", "https://openalex.org/W4206831265", "https://openalex.org/W4220916844", "https://openalex.org/W4280523680", "https://openalex.org/W4280594082", "https://openalex.org/W4281638426", "https://openalex.org/W4294167258", "https://openalex.org/W4322490833", "https://openalex.org/W4362664223", "https://openalex.org/W4378952195", "https://openalex.org/W4388997798")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2374723269", "https://openalex.org/W4297461925", "https://openalex.org/W2992096461", "https://openalex.org/W1992418884", "https://openalex.org/W4246159840", "https://openalex.org/W2418876351", "https://openalex.org/W588655279", "https://openalex.org/W2383994333", "https://openalex.org/W2334838563", "https://openalex.org/W642714463")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Talal Moukabary_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Talal Moukabary_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Division of Blood &amp; Marrow Transplant &amp; Cellular Therapy, Department of Pediatrics, Masonic Cancer Center, University of Minnesota, Minneapolis, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Division of Cardiothoracic Surgery, Department of Surgery, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Research &amp; Discovery Tech, Research Computing Specialist, Principal, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Department of Pathology, NYU Grossman School of Medicine, New York City, USA; Section of Cardiology, Tulane University Heart and Vascular Institute, John W. Deming Department of Medicine, Section of Cardiology, Department of Medicine, Southeast Louisiana Veterans Healthcare System, Tulane University School of Medicine, New Orleans, USA; Ralph H. Johnson VA Medical Center, Division of Cardiology, Medical University of South Carolina, Thurmond/Gazes Building, Charleston, USA; Ralph H. Johnson VA Medical Center, Division of Cardiology, Medical University of South Carolina, Thurmond/Gazes Building, Charleston, USA; Biomedical Engineering, College of Engineering, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA; Sarver Heart Center, Department of Medicine, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388997798</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Biologically derived epicardial patch induces macrophage mediated pathophysiologic repair in chronically infarcted swine hearts</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-11-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Communications biology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s42003-023-05564-w</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38007534</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s42003-023-05564-w</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
